--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc204_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc204_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1092,10 +1116,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1139,28 +1163,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="3">
+      <c r="A35" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="3">
+      <c r="B35" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="3">
+      <c r="C35" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D35" t="s" s="3">
+      <c r="D35" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="3">
+      <c r="E35" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="3">
+      <c r="F35" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="3">
+      <c r="G35" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="3">
+      <c r="H35" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1185,28 +1209,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="3">
+      <c r="B37" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="3">
+      <c r="C37" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="3">
+      <c r="D37" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="3">
+      <c r="E37" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="3">
+      <c r="F37" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="3">
+      <c r="G37" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="3">
+      <c r="H37" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="3">
+      <c r="I37" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1758,10 +1782,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="K56" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1805,28 +1829,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="3">
+      <c r="A58" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="3">
+      <c r="B58" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="3">
+      <c r="C58" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D58" t="s" s="3">
+      <c r="D58" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="3">
+      <c r="F58" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="3">
+      <c r="G58" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="3">
+      <c r="H58" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1851,28 +1875,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="3">
+      <c r="B60" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="3">
+      <c r="C60" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="3">
+      <c r="D60" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="3">
+      <c r="E60" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="3">
+      <c r="F60" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="3">
+      <c r="G60" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="3">
+      <c r="H60" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="3">
+      <c r="I60" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2424,10 +2448,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="J79" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="3" t="s">
+      <c r="K79" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2471,28 +2495,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="3">
+      <c r="A81" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="3">
+      <c r="B81" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="3">
+      <c r="C81" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D81" t="s" s="3">
+      <c r="D81" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="3">
+      <c r="E81" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="3">
+      <c r="F81" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="3">
+      <c r="G81" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="3">
+      <c r="H81" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2517,28 +2541,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="3">
+      <c r="B83" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="3">
+      <c r="C83" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="3">
+      <c r="D83" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="3">
+      <c r="E83" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="3">
+      <c r="F83" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="3">
+      <c r="G83" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="3">
+      <c r="H83" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="3">
+      <c r="I83" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3032,10 +3056,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J100" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="K100" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3079,28 +3103,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="3">
+      <c r="A102" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="3">
+      <c r="B102" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="3">
+      <c r="C102" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D102" t="s" s="3">
+      <c r="D102" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="3">
+      <c r="E102" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="3">
+      <c r="F102" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="3">
+      <c r="G102" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="3">
+      <c r="H102" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3125,28 +3149,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="3">
+      <c r="B104" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="3">
+      <c r="C104" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="3">
+      <c r="D104" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="3">
+      <c r="E104" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="3">
+      <c r="F104" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="3">
+      <c r="G104" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="3">
+      <c r="H104" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="3">
+      <c r="I104" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3756,10 +3780,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="3" t="s">
+      <c r="J125" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="3" t="s">
+      <c r="K125" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3803,28 +3827,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="3">
+      <c r="A127" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="3">
+      <c r="B127" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="3">
+      <c r="C127" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="3">
+      <c r="D127" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="3">
+      <c r="E127" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="3">
+      <c r="F127" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="3">
+      <c r="G127" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="3">
+      <c r="H127" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3849,28 +3873,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="3">
+      <c r="B129" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="3">
+      <c r="C129" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="3">
+      <c r="D129" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="3">
+      <c r="F129" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="3">
+      <c r="G129" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="3">
+      <c r="H129" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="3">
+      <c r="I129" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3929,10 +3953,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="3" t="s">
+      <c r="J131" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K131" s="3" t="s">
+      <c r="K131" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
